--- a/分析设计/报表/财务报表/齐友房东开票信息2015.6.15-7.5.xlsx
+++ b/分析设计/报表/财务报表/齐友房东开票信息2015.6.15-7.5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6030" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="2015开票" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="623">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,10 +1243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,14 +1255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房租租期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2479,6 +2467,14 @@
   </si>
   <si>
     <t>2015.6.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款日期（每月5号/15号/25号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话（去掉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2695,7 +2691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2826,6 +2822,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3167,30 +3166,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -5798,11 +5797,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="2">
         <f>SUM(D4:D81)</f>
         <v>929520</v>
@@ -7069,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E65" sqref="E27:E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7079,84 +7078,84 @@
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25">
+    </row>
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D4" s="15">
         <v>3000</v>
@@ -7166,33 +7165,33 @@
         <v>3000</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G4" s="14">
         <v>13901858168</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25">
+    </row>
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D5" s="15">
         <v>1600</v>
@@ -7202,33 +7201,33 @@
         <v>1600</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G5" s="14">
         <v>13901858168</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D6" s="15">
         <v>2900</v>
@@ -7238,33 +7237,33 @@
         <v>2900</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G6" s="14">
         <v>15801891203</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D7" s="15">
         <v>1550</v>
@@ -7274,33 +7273,33 @@
         <v>1550</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G7" s="14">
         <v>15801891203</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>220</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D8" s="15">
         <v>1600</v>
@@ -7310,33 +7309,33 @@
         <v>1600</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D9" s="15">
         <v>2300</v>
@@ -7346,33 +7345,33 @@
         <v>2300</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D10" s="15">
         <v>3000</v>
@@ -7382,33 +7381,33 @@
         <v>3000</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D11" s="15">
         <v>3000</v>
@@ -7418,33 +7417,33 @@
         <v>3000</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12" s="15">
         <v>2300</v>
@@ -7454,33 +7453,33 @@
         <v>2300</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D13" s="15">
         <v>1600</v>
@@ -7490,33 +7489,33 @@
         <v>1600</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>351</v>
-      </c>
       <c r="I13" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D14" s="15">
         <v>3000</v>
@@ -7526,33 +7525,33 @@
         <v>3000</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D15" s="15">
         <v>3000</v>
@@ -7562,33 +7561,33 @@
         <v>3000</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D16" s="15">
         <v>2300</v>
@@ -7598,33 +7597,33 @@
         <v>2300</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D17" s="15">
         <v>3000</v>
@@ -7634,33 +7633,33 @@
         <v>3000</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D18" s="15">
         <v>2300</v>
@@ -7670,33 +7669,33 @@
         <v>2300</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D19" s="15">
         <v>1600</v>
@@ -7706,33 +7705,33 @@
         <v>1600</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D20" s="15">
         <v>2300</v>
@@ -7742,33 +7741,33 @@
         <v>2300</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D21" s="15">
         <v>2300</v>
@@ -7778,33 +7777,33 @@
         <v>2300</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D22" s="15">
         <v>2300</v>
@@ -7814,25 +7813,25 @@
         <v>2300</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>386</v>
-      </c>
       <c r="I22" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>301</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D23" s="15">
         <v>2000</v>
@@ -7850,33 +7849,33 @@
         <v>2000</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25">
       <c r="A24" s="37">
         <v>21</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D24" s="15">
         <v>1700</v>
@@ -7886,33 +7885,33 @@
         <v>1700</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="G24" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>618</v>
-      </c>
       <c r="I24" s="42" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K24" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
+    <row r="25" spans="1:11" ht="17.25">
       <c r="A25" s="37">
         <v>22</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D25" s="15">
         <v>1700</v>
@@ -7922,33 +7921,33 @@
         <v>1700</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="G25" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>618</v>
-      </c>
       <c r="I25" s="42" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K25" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11" ht="17.25">
       <c r="A26" s="37">
         <v>23</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D26" s="15">
         <v>1700</v>
@@ -7958,33 +7957,33 @@
         <v>1700</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K26" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
+    <row r="27" spans="1:11" ht="17.25">
       <c r="A27" s="37">
         <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D27" s="15">
         <v>1600</v>
@@ -7994,33 +7993,33 @@
         <v>1600</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25">
       <c r="A28" s="37">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D28" s="15">
         <v>2300</v>
@@ -8030,33 +8029,33 @@
         <v>2300</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>396</v>
-      </c>
       <c r="I28" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25">
       <c r="A29" s="37">
         <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D29" s="15">
         <v>2300</v>
@@ -8066,33 +8065,33 @@
         <v>2300</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25">
       <c r="A30" s="37">
         <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D30" s="15">
         <v>2300</v>
@@ -8102,33 +8101,33 @@
         <v>2300</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25">
       <c r="A31" s="37">
         <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D31" s="15">
         <v>3000</v>
@@ -8138,33 +8137,33 @@
         <v>3000</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.25">
       <c r="A32" s="37">
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D32" s="15">
         <v>1600</v>
@@ -8174,33 +8173,33 @@
         <v>1600</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17.25">
       <c r="A33" s="37">
         <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D33" s="15">
         <v>2300</v>
@@ -8210,33 +8209,33 @@
         <v>2300</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17.25">
       <c r="A34" s="37">
         <v>31</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D34" s="15">
         <v>3000</v>
@@ -8246,33 +8245,33 @@
         <v>3000</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17.25">
       <c r="A35" s="37">
         <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D35" s="15">
         <v>3000</v>
@@ -8282,33 +8281,33 @@
         <v>3000</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17.25">
       <c r="A36" s="37">
         <v>33</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D36" s="15">
         <v>1600</v>
@@ -8318,33 +8317,33 @@
         <v>1600</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.25">
       <c r="A37" s="37">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D37" s="15">
         <v>2300</v>
@@ -8354,33 +8353,33 @@
         <v>2300</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G37" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="I37" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.25">
       <c r="A38" s="37">
         <v>35</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D38" s="15">
         <v>2300</v>
@@ -8390,33 +8389,33 @@
         <v>2300</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17.25">
       <c r="A39" s="37">
         <v>36</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D39" s="15">
         <v>2300</v>
@@ -8426,33 +8425,33 @@
         <v>2300</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>239</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.25">
       <c r="A40" s="37">
         <v>37</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D40" s="15">
         <v>3000</v>
@@ -8462,33 +8461,33 @@
         <v>3000</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>240</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.25">
       <c r="A41" s="37">
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D41" s="15">
         <v>2300</v>
@@ -8498,33 +8497,33 @@
         <v>2300</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.25">
       <c r="A42" s="37">
         <v>39</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D42" s="15">
         <v>2300</v>
@@ -8534,33 +8533,33 @@
         <v>2300</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.25">
       <c r="A43" s="37">
         <v>40</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D43" s="15">
         <v>3000</v>
@@ -8570,33 +8569,33 @@
         <v>3000</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17.25">
       <c r="A44" s="37">
         <v>41</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D44" s="15">
         <v>1600</v>
@@ -8606,33 +8605,33 @@
         <v>1600</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17.25">
       <c r="A45" s="37">
         <v>42</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D45" s="15">
         <v>2300</v>
@@ -8642,33 +8641,33 @@
         <v>2300</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17.25">
       <c r="A46" s="37">
         <v>43</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D46" s="15">
         <v>2300</v>
@@ -8678,33 +8677,33 @@
         <v>2300</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.25">
       <c r="A47" s="37">
         <v>44</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D47" s="15">
         <v>1600</v>
@@ -8714,33 +8713,33 @@
         <v>1600</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17.25">
       <c r="A48" s="37">
         <v>45</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D48" s="15">
         <v>1600</v>
@@ -8750,33 +8749,33 @@
         <v>1600</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="17.25">
       <c r="A49" s="37">
         <v>46</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D49" s="15">
         <v>1600</v>
@@ -8786,33 +8785,33 @@
         <v>1600</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="17.25">
       <c r="A50" s="37">
         <v>47</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D50" s="15">
         <v>3000</v>
@@ -8822,33 +8821,33 @@
         <v>3000</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G50" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>474</v>
-      </c>
       <c r="I50" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="17.25">
       <c r="A51" s="37">
         <v>48</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D51" s="15">
         <v>2300</v>
@@ -8858,33 +8857,33 @@
         <v>2300</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.25">
       <c r="A52" s="37">
         <v>49</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D52" s="15">
         <v>2900</v>
@@ -8894,33 +8893,33 @@
         <v>2900</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.25">
       <c r="A53" s="37">
         <v>50</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D53" s="15">
         <v>2300</v>
@@ -8930,33 +8929,33 @@
         <v>2300</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="17.25">
       <c r="A54" s="37">
         <v>51</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D54" s="15">
         <v>1600</v>
@@ -8966,33 +8965,33 @@
         <v>1600</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="17.25">
       <c r="A55" s="37">
         <v>52</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D55" s="15">
         <v>1600</v>
@@ -9002,33 +9001,33 @@
         <v>1600</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17.25">
       <c r="A56" s="37">
         <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D56" s="15">
         <v>2300</v>
@@ -9038,33 +9037,33 @@
         <v>2300</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="17.25">
       <c r="A57" s="37">
         <v>54</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D57" s="15">
         <v>1600</v>
@@ -9074,33 +9073,33 @@
         <v>1600</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17.25">
       <c r="A58" s="37">
         <v>55</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D58" s="15">
         <v>1600</v>
@@ -9110,33 +9109,33 @@
         <v>1600</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17.25">
       <c r="A59" s="37">
         <v>56</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D59" s="15">
         <v>3000</v>
@@ -9146,33 +9145,33 @@
         <v>3000</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17.25">
       <c r="A60" s="37">
         <v>57</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D60" s="15">
         <v>2300</v>
@@ -9182,33 +9181,33 @@
         <v>2300</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17.25">
       <c r="A61" s="37">
         <v>58</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D61" s="15">
         <v>2300</v>
@@ -9218,33 +9217,33 @@
         <v>2300</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17.25">
       <c r="A62" s="37">
         <v>59</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D62" s="15">
         <v>1600</v>
@@ -9254,33 +9253,33 @@
         <v>1600</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17.25">
       <c r="A63" s="37">
         <v>60</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D63" s="15">
         <v>2800</v>
@@ -9290,33 +9289,33 @@
         <v>2800</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17.25">
       <c r="A64" s="37">
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D64" s="27">
         <v>2100</v>
@@ -9326,33 +9325,33 @@
         <v>2100</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G64" s="35">
         <v>13386223988</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="17.25">
       <c r="A65" s="37">
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D65" s="27">
         <v>2100</v>
@@ -9362,33 +9361,33 @@
         <v>2100</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G65" s="35">
         <v>13386223988</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17.25">
       <c r="A66" s="37">
         <v>63</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D66" s="15">
         <v>3000</v>
@@ -9398,33 +9397,33 @@
         <v>3000</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17.25">
       <c r="A67" s="37">
         <v>64</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D67" s="15">
         <v>2300</v>
@@ -9434,33 +9433,33 @@
         <v>2300</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17.25">
       <c r="A68" s="37">
         <v>65</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D68" s="15">
         <v>1600</v>
@@ -9470,33 +9469,33 @@
         <v>1600</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G68" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>532</v>
-      </c>
       <c r="I68" s="14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="17.25">
       <c r="A69" s="37">
         <v>66</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D69" s="15">
         <v>2300</v>
@@ -9506,33 +9505,33 @@
         <v>2300</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="17.25">
       <c r="A70" s="37">
         <v>67</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D70" s="15">
         <v>2300</v>
@@ -9542,33 +9541,33 @@
         <v>2300</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.25">
       <c r="A71" s="37">
         <v>68</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D71" s="15">
         <v>2300</v>
@@ -9578,33 +9577,33 @@
         <v>2300</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="17.25">
       <c r="A72" s="37">
         <v>69</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D72" s="15">
         <v>3000</v>
@@ -9614,33 +9613,33 @@
         <v>3000</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="17.25">
       <c r="A73" s="37">
         <v>70</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D73" s="15">
         <v>3000</v>
@@ -9650,33 +9649,33 @@
         <v>3000</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17.25">
       <c r="A74" s="37">
         <v>71</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D74" s="15">
         <v>2300</v>
@@ -9686,33 +9685,33 @@
         <v>2300</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17.25">
       <c r="A75" s="37">
         <v>72</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D75" s="15">
         <v>1600</v>
@@ -9722,33 +9721,33 @@
         <v>1600</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17.25">
       <c r="A76" s="37">
         <v>73</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D76" s="15">
         <v>1600</v>
@@ -9758,33 +9757,33 @@
         <v>1600</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G76" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="H76" s="13" t="s">
-        <v>567</v>
-      </c>
       <c r="I76" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17.25">
       <c r="A77" s="37">
         <v>74</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D77" s="15">
         <v>1600</v>
@@ -9794,33 +9793,33 @@
         <v>1600</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17.25">
       <c r="A78" s="37">
         <v>75</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D78" s="15">
         <v>3000</v>
@@ -9830,33 +9829,33 @@
         <v>3000</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17.25">
       <c r="A79" s="37">
         <v>76</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D79" s="15">
         <v>3000</v>
@@ -9866,33 +9865,33 @@
         <v>3000</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G79" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>573</v>
-      </c>
       <c r="I79" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.25">
       <c r="A80" s="37">
         <v>77</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D80" s="15">
         <v>2300</v>
@@ -9902,33 +9901,33 @@
         <v>2300</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17.25">
       <c r="A81" s="37">
         <v>78</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D81" s="15">
         <v>2300</v>
@@ -9938,33 +9937,33 @@
         <v>2300</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17.25">
       <c r="A82" s="37">
         <v>79</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D82" s="15">
         <v>2300</v>
@@ -9974,33 +9973,33 @@
         <v>2300</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.25">
       <c r="A83" s="37">
         <v>80</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D83" s="15">
         <v>2230</v>
@@ -10010,33 +10009,33 @@
         <v>2230</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.25">
       <c r="A84" s="37">
         <v>81</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D84" s="15">
         <v>2300</v>
@@ -10046,33 +10045,33 @@
         <v>2300</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17.25">
       <c r="A85" s="37">
         <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D85" s="15">
         <v>3000</v>
@@ -10082,33 +10081,33 @@
         <v>3000</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17.25">
       <c r="A86" s="37">
         <v>83</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D86" s="20">
         <v>2300</v>
@@ -10118,33 +10117,33 @@
         <v>2300</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="14.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17.25">
       <c r="A87" s="37">
         <v>84</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D87" s="27">
         <v>1500</v>
@@ -10154,33 +10153,33 @@
         <v>1500</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G87" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="J87" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="K87" s="34" t="s">
         <v>599</v>
       </c>
-      <c r="I87" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="J87" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="K87" s="34" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.25">
+    </row>
+    <row r="88" spans="1:11" ht="17.25">
       <c r="A88" s="37">
         <v>85</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D88" s="27">
         <v>2100</v>
@@ -10190,30 +10189,30 @@
         <v>2100</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G88" s="35">
         <v>58900655</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.25">
-      <c r="A89" s="49" t="s">
-        <v>595</v>
-      </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17.25">
+      <c r="A89" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="27">
         <f>SUM(D4:D88)</f>
         <v>192180</v>
